--- a/result/task4_results.xlsx
+++ b/result/task4_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mason\Desktop\Project5_YZ\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC86284E-A41B-4B52-856E-D1EF698E268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C47BAF7-E785-4EBB-8DE9-FD036BB4E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="1020" windowWidth="17550" windowHeight="20880" xr2:uid="{2D336792-B65C-4DEF-AB1E-570D1AE7FDD5}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="19185" windowHeight="21150" activeTab="1" xr2:uid="{2D336792-B65C-4DEF-AB1E-570D1AE7FDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="task4_results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="339">
   <si>
     <t>Configuration: Layers=1</t>
   </si>
@@ -1042,13 +1042,25 @@
   </si>
   <si>
     <t>sec</t>
+  </si>
+  <si>
+    <t>Layers=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Layers=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Layers=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Layers=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1073,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1083,9 +1102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F468E475-E2DA-475F-B509-2EC3A75B2FEC}">
-  <dimension ref="A2:D351"/>
+  <dimension ref="A2:M351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G235" sqref="G235"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1432,6 +1456,10 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,12 +5955,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FF14C2-DC00-4FA0-BE87-F54A4CA57282}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="3">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="3">
+        <v>14.053999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14.618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="3">
+        <v>28.795999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="3">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="3">
+        <v>25.921000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="3">
+        <v>38.106999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="3">
+        <v>38.233000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="3">
+        <v>38.024000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="3">
+        <v>16.746999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="3">
+        <v>18.080000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="3">
+        <v>18.479000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="3">
+        <v>37.915000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="3">
+        <v>38.177999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="3">
+        <v>38.012999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="3">
+        <v>74.236999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="3">
+        <v>74.635999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="3">
+        <v>73.666000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="3">
+        <v>19.724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21.093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20.844000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="3">
+        <v>49.024999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="3">
+        <v>48.994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" s="3">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H26" s="3">
+        <v>101.16600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" s="3">
+        <v>101.85900000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="3">
+        <v>101.86500000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>